--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.06592966666667</v>
+        <v>17.16209533333333</v>
       </c>
       <c r="H2">
-        <v>99.197789</v>
+        <v>51.486286</v>
       </c>
       <c r="I2">
-        <v>0.4620579289161133</v>
+        <v>0.2459970657298922</v>
       </c>
       <c r="J2">
-        <v>0.4620579289161132</v>
+        <v>0.2459970657298922</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.98837</v>
+        <v>174.1282373333333</v>
       </c>
       <c r="N2">
-        <v>488.96511</v>
+        <v>522.384712</v>
       </c>
       <c r="O2">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="P2">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="Q2">
-        <v>5389.361978904644</v>
+        <v>2988.405409339959</v>
       </c>
       <c r="R2">
-        <v>48504.25781014179</v>
+        <v>26895.64868405963</v>
       </c>
       <c r="S2">
-        <v>0.4578781414866193</v>
+        <v>0.2424610621670533</v>
       </c>
       <c r="T2">
-        <v>0.4578781414866192</v>
+        <v>0.2424610621670532</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.06592966666667</v>
+        <v>17.16209533333333</v>
       </c>
       <c r="H3">
-        <v>99.197789</v>
+        <v>51.486286</v>
       </c>
       <c r="I3">
-        <v>0.4620579289161133</v>
+        <v>0.2459970657298922</v>
       </c>
       <c r="J3">
-        <v>0.4620579289161132</v>
+        <v>0.2459970657298922</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.954069</v>
       </c>
       <c r="O3">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="P3">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="Q3">
-        <v>21.53770270593789</v>
+        <v>11.17863948863711</v>
       </c>
       <c r="R3">
-        <v>193.839324353441</v>
+        <v>100.607755397734</v>
       </c>
       <c r="S3">
-        <v>0.00182983502045088</v>
+        <v>0.0009069669046664436</v>
       </c>
       <c r="T3">
-        <v>0.001829835020450879</v>
+        <v>0.0009069669046664435</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.06592966666667</v>
+        <v>17.16209533333333</v>
       </c>
       <c r="H4">
-        <v>99.197789</v>
+        <v>51.486286</v>
       </c>
       <c r="I4">
-        <v>0.4620579289161133</v>
+        <v>0.2459970657298922</v>
       </c>
       <c r="J4">
-        <v>0.4620579289161132</v>
+        <v>0.2459970657298922</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8364996666666666</v>
+        <v>1.888095</v>
       </c>
       <c r="N4">
-        <v>2.509499</v>
+        <v>5.664285</v>
       </c>
       <c r="O4">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="P4">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="Q4">
-        <v>27.65963914419011</v>
+        <v>32.40366638839</v>
       </c>
       <c r="R4">
-        <v>248.936752297711</v>
+        <v>291.63299749551</v>
       </c>
       <c r="S4">
-        <v>0.002349952409043111</v>
+        <v>0.002629036658172545</v>
       </c>
       <c r="T4">
-        <v>0.00234995240904311</v>
+        <v>0.002629036658172545</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>44.072723</v>
       </c>
       <c r="I5">
-        <v>0.2052883568914379</v>
+        <v>0.2105756965403629</v>
       </c>
       <c r="J5">
-        <v>0.2052883568914379</v>
+        <v>0.2105756965403628</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>162.98837</v>
+        <v>174.1282373333333</v>
       </c>
       <c r="N5">
-        <v>488.96511</v>
+        <v>522.384712</v>
       </c>
       <c r="O5">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="P5">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="Q5">
-        <v>2394.447094410504</v>
+        <v>2558.101856823419</v>
       </c>
       <c r="R5">
-        <v>21550.02384969453</v>
+        <v>23022.91671141078</v>
       </c>
       <c r="S5">
-        <v>0.2034313133480685</v>
+        <v>0.2075488457484449</v>
       </c>
       <c r="T5">
-        <v>0.2034313133480685</v>
+        <v>0.2075488457484449</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>44.072723</v>
       </c>
       <c r="I6">
-        <v>0.2052883568914379</v>
+        <v>0.2105756965403629</v>
       </c>
       <c r="J6">
-        <v>0.2052883568914379</v>
+        <v>0.2105756965403628</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>1.954069</v>
       </c>
       <c r="O6">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="P6">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="Q6">
-        <v>9.569015751098556</v>
+        <v>9.569015751098554</v>
       </c>
       <c r="R6">
-        <v>86.12114175988701</v>
+        <v>86.121141759887</v>
       </c>
       <c r="S6">
-        <v>0.0008129799343817124</v>
+        <v>0.0007763718120885934</v>
       </c>
       <c r="T6">
-        <v>0.0008129799343817124</v>
+        <v>0.0007763718120885932</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>44.072723</v>
       </c>
       <c r="I7">
-        <v>0.2052883568914379</v>
+        <v>0.2105756965403629</v>
       </c>
       <c r="J7">
-        <v>0.2052883568914379</v>
+        <v>0.2105756965403628</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8364996666666666</v>
+        <v>1.888095</v>
       </c>
       <c r="N7">
-        <v>2.509499</v>
+        <v>5.664285</v>
       </c>
       <c r="O7">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="P7">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="Q7">
-        <v>12.28893936619744</v>
+        <v>27.737829310895</v>
       </c>
       <c r="R7">
-        <v>110.600454295777</v>
+        <v>249.640463798055</v>
       </c>
       <c r="S7">
-        <v>0.001044063608987693</v>
+        <v>0.002250478979829391</v>
       </c>
       <c r="T7">
-        <v>0.001044063608987693</v>
+        <v>0.002250478979829391</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.805466</v>
+        <v>37.91244433333333</v>
       </c>
       <c r="H8">
-        <v>71.416398</v>
+        <v>113.737333</v>
       </c>
       <c r="I8">
-        <v>0.3326537141924489</v>
+        <v>0.543427237729745</v>
       </c>
       <c r="J8">
-        <v>0.3326537141924489</v>
+        <v>0.543427237729745</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>162.98837</v>
+        <v>174.1282373333333</v>
       </c>
       <c r="N8">
-        <v>488.96511</v>
+        <v>522.384712</v>
       </c>
       <c r="O8">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="P8">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="Q8">
-        <v>3880.01410043042</v>
+        <v>6601.627104761455</v>
       </c>
       <c r="R8">
-        <v>34920.12690387378</v>
+        <v>59414.6439428531</v>
       </c>
       <c r="S8">
-        <v>0.3296445204833014</v>
+        <v>0.5356159224075289</v>
       </c>
       <c r="T8">
-        <v>0.3296445204833014</v>
+        <v>0.5356159224075289</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.805466</v>
+        <v>37.91244433333333</v>
       </c>
       <c r="H9">
-        <v>71.416398</v>
+        <v>113.737333</v>
       </c>
       <c r="I9">
-        <v>0.3326537141924489</v>
+        <v>0.543427237729745</v>
       </c>
       <c r="J9">
-        <v>0.3326537141924489</v>
+        <v>0.543427237729745</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.954069</v>
       </c>
       <c r="O9">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="P9">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="Q9">
-        <v>15.50584104705133</v>
+        <v>24.69451072866411</v>
       </c>
       <c r="R9">
-        <v>139.552569423462</v>
+        <v>222.250596557977</v>
       </c>
       <c r="S9">
-        <v>0.001317370350813546</v>
+        <v>0.002003562596378122</v>
       </c>
       <c r="T9">
-        <v>0.001317370350813546</v>
+        <v>0.002003562596378122</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.805466</v>
+        <v>37.91244433333333</v>
       </c>
       <c r="H10">
-        <v>71.416398</v>
+        <v>113.737333</v>
       </c>
       <c r="I10">
-        <v>0.3326537141924489</v>
+        <v>0.543427237729745</v>
       </c>
       <c r="J10">
-        <v>0.3326537141924489</v>
+        <v>0.543427237729745</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8364996666666666</v>
+        <v>1.888095</v>
       </c>
       <c r="N10">
-        <v>2.509499</v>
+        <v>5.664285</v>
       </c>
       <c r="O10">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="P10">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="Q10">
-        <v>19.91326437384467</v>
+        <v>71.582296583545</v>
       </c>
       <c r="R10">
-        <v>179.219379364602</v>
+        <v>644.240669251905</v>
       </c>
       <c r="S10">
-        <v>0.00169182335833394</v>
+        <v>0.005807752725838059</v>
       </c>
       <c r="T10">
-        <v>0.00169182335833394</v>
+        <v>0.005807752725838059</v>
       </c>
     </row>
   </sheetData>
